--- a/xlsx/shop.xlsx
+++ b/xlsx/shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORY\Project\Web1_Andrey\Association\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORY\Project\Web1_Andrey\git\Association\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4417EE4-DB4E-4F27-B757-39D9AE184CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E3180-F83F-4DA8-8C34-DF965C9E7417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общие семинары" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2292,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xlsx/shop.xlsx
+++ b/xlsx/shop.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORY\Project\Web1_Andrey\git\Association\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORY\Project\IA\git\Association\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E3180-F83F-4DA8-8C34-DF965C9E7417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61149094-304A-4C58-9ABE-7EDD27F02990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Общие семинары" sheetId="1" r:id="rId1"/>
-    <sheet name="Крутов" sheetId="2" r:id="rId2"/>
-    <sheet name="GOT - Кумонок" sheetId="4" r:id="rId3"/>
-    <sheet name="Дмитрий Кущик" sheetId="3" r:id="rId4"/>
-    <sheet name="Акупунктура (Митрик)" sheetId="5" r:id="rId5"/>
+    <sheet name="Семінари Андрія Косікова" sheetId="1" r:id="rId1"/>
+    <sheet name="Семінари Крутова Григорія" sheetId="2" r:id="rId2"/>
+    <sheet name="Олександр Кумонок. Анна Зайчук" sheetId="4" r:id="rId3"/>
+    <sheet name="Семінари Дмитра Кущика" sheetId="3" r:id="rId4"/>
+    <sheet name="Семінари Вячеслава Лисенка" sheetId="6" r:id="rId5"/>
+    <sheet name="Семінари Івана Митрика" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>Название</t>
   </si>
@@ -35,18 +36,9 @@
     <t>Иглорефлексотерапия</t>
   </si>
   <si>
-    <t>Русский</t>
-  </si>
-  <si>
     <t>МФР</t>
   </si>
   <si>
-    <t>Метафора в телесной терапии</t>
-  </si>
-  <si>
-    <t>OsteoDesign  Травма тела и травма души</t>
-  </si>
-  <si>
     <t>OsteoDesign 1</t>
   </si>
   <si>
@@ -74,93 +66,24 @@
     <t>Квіти Баха</t>
   </si>
   <si>
-    <t>Краниосакральная терапия</t>
-  </si>
-  <si>
-    <t>Краниосакральная терапия 2. Эстетическое моделирование лица</t>
-  </si>
-  <si>
-    <t>Краніосакральна терапія 2 ЛЬвів</t>
-  </si>
-  <si>
     <t>Краніосакральна терапія 2 Київ</t>
   </si>
   <si>
-    <t>Краніосакральна терапія 2. Київ</t>
-  </si>
-  <si>
     <t>КСТ4. Повернення тіла</t>
   </si>
   <si>
-    <t>КСТ-1 Львів</t>
-  </si>
-  <si>
-    <t>КСТ 1</t>
-  </si>
-  <si>
     <t>КСТ 1 Київ</t>
   </si>
   <si>
     <t>КСТ 3 Київ</t>
   </si>
   <si>
-    <t>Метафора 1</t>
-  </si>
-  <si>
-    <t>Микроиглы</t>
-  </si>
-  <si>
-    <t>Нанометали</t>
-  </si>
-  <si>
-    <t>Работа с эмоциями и эстетикой лица</t>
-  </si>
-  <si>
-    <t>Работа со шрамами</t>
-  </si>
-  <si>
     <t>Робота зі шрамами. 2 дні</t>
   </si>
   <si>
-    <t>Робота зі шрамами</t>
-  </si>
-  <si>
-    <t>Цветы Баха</t>
-  </si>
-  <si>
-    <t>Эмоции 2. Карта местности</t>
-  </si>
-  <si>
-    <t>Эмоции для всех. Косиков и Кущик</t>
-  </si>
-  <si>
-    <t>Эмоции</t>
-  </si>
-  <si>
     <t>Ягоды и компоты. Здоровье и ресурс</t>
   </si>
   <si>
-    <t>Про Любовь. Эмоции 2. Практикум после семинара</t>
-  </si>
-  <si>
-    <t>Міжсемінарське КСТ2</t>
-  </si>
-  <si>
-    <t>Міжсемінарське КСТ1 і КСТ2</t>
-  </si>
-  <si>
-    <t>Лечение внутрикостных дисфункций черепа и позвонков</t>
-  </si>
-  <si>
-    <t>Внешние вектора</t>
-  </si>
-  <si>
-    <t>Векторні техніки</t>
-  </si>
-  <si>
-    <t>OsteoDesign міжсемінарське</t>
-  </si>
-  <si>
     <t>СКОЛИОЗЫ и примитивные рефлексы – Крутов Г.М., Кущик Д.Ю.</t>
   </si>
   <si>
@@ -344,18 +267,9 @@
     <t>Школа Остеопатії IAKO 1-й семінар - Мейтленд. 15-17.12.2023</t>
   </si>
   <si>
-    <t>Школа Остеопатії IAKO міжсемінарське заняття</t>
-  </si>
-  <si>
-    <t>Школа Остеопатії -1. IAKO міжсемінарське заняття</t>
-  </si>
-  <si>
     <t>Школа Остеопатії IAKO 2-й семінар - МФР</t>
   </si>
   <si>
-    <t>Школа Остеопатії IAKO МФР міжсемінарське заняття</t>
-  </si>
-  <si>
     <t>Школа Остеопатии IAKO (3-й семінар) Мышечно энергетические техники и постизометрическая релаксация (10-12.05.2024)</t>
   </si>
   <si>
@@ -365,27 +279,12 @@
     <t>Російсько-українська</t>
   </si>
   <si>
-    <t>Школа Остеопатії IAKO КСТ міжсемінарське заняття</t>
-  </si>
-  <si>
     <t>Школа Остеопатии IAKO 5-й семінар Судинне поле за Джіамматео</t>
   </si>
   <si>
-    <t>Школа Остеопатії IAKO – Судинне поле за Джіамматео – міжсемінарське заняття</t>
-  </si>
-  <si>
-    <t>Школа Остеопатії IAKO – Судинне поле за Джіамматео – міжсемінарське заняття 2-</t>
-  </si>
-  <si>
     <t>Школа Остеопатии IAKO 6-й семинар Нейро-васкулярна динаміка</t>
   </si>
   <si>
-    <t>Школа Остеопатії IAKO – Нейро-васкулярне динаміка – міжсемінарське заняття 1</t>
-  </si>
-  <si>
-    <t>Школа Остеопатії IAKO – Нейро-васкулярне динаміка – міжсемінарське заняття 2</t>
-  </si>
-  <si>
     <t>Акупунктура - 2023 - Концепція Небо-Замля-Людина. – Іван Митрик</t>
   </si>
   <si>
@@ -405,13 +304,37 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>Вечірня школа 2</t>
+  </si>
+  <si>
+    <t>Вечірня школа 3</t>
+  </si>
+  <si>
+    <t>Безусловные и первичные рефлексы. Киев. 26-28.01.2024 Дмитрий Кущик и Вячеслав Лысенко</t>
+  </si>
+  <si>
+    <t>Первый контакт с новорожденным. Вячеслав Лысенко 18.09.2022</t>
+  </si>
+  <si>
+    <t>російська</t>
+  </si>
+  <si>
+    <t>Назва</t>
+  </si>
+  <si>
+    <t>Мова</t>
+  </si>
+  <si>
+    <t>Ціна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +345,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -453,12 +392,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -761,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,178 +722,178 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>107</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>111</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,330 +901,32 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>116</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>117</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>118</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>119</v>
-      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2">
-        <v>120</v>
-      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2">
-        <v>121</v>
-      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2">
-        <v>144</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1289,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,161 +955,161 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C14">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1470,11 +1118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,227 +1139,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C11">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21">
-        <v>119</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1720,11 +1258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,15 +1279,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1757,10 +1295,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>101</v>
@@ -1768,10 +1306,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>102</v>
@@ -1779,10 +1317,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>103</v>
@@ -1790,10 +1328,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>104</v>
@@ -1801,10 +1339,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>105</v>
@@ -1812,10 +1350,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>106</v>
@@ -1823,10 +1361,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>107</v>
@@ -1834,10 +1372,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>108</v>
@@ -1845,10 +1383,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>109</v>
@@ -1856,10 +1394,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>110</v>
@@ -1867,10 +1405,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>111</v>
@@ -1878,10 +1416,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>112</v>
@@ -1889,10 +1427,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>113</v>
@@ -1900,10 +1438,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>114</v>
@@ -1911,10 +1449,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>115</v>
@@ -1922,10 +1460,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>116</v>
@@ -1933,10 +1471,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>117</v>
@@ -1944,10 +1482,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>118</v>
@@ -1955,10 +1493,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>119</v>
@@ -1966,10 +1504,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>120</v>
@@ -1977,10 +1515,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>121</v>
@@ -1988,10 +1526,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>122</v>
@@ -1999,10 +1537,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>123</v>
@@ -2010,10 +1548,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>124</v>
@@ -2021,10 +1559,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -2032,10 +1570,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C28">
         <v>126</v>
@@ -2043,10 +1581,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>127</v>
@@ -2054,10 +1592,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>128</v>
@@ -2065,10 +1603,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>129</v>
@@ -2076,10 +1614,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>130</v>
@@ -2087,10 +1625,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>131</v>
@@ -2098,10 +1636,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>132</v>
@@ -2109,10 +1647,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <v>133</v>
@@ -2120,10 +1658,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C36">
         <v>134</v>
@@ -2131,10 +1669,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C37">
         <v>135</v>
@@ -2142,10 +1680,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C38">
         <v>136</v>
@@ -2153,10 +1691,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -2164,10 +1702,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>138</v>
@@ -2175,10 +1713,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <v>139</v>
@@ -2186,10 +1724,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>140</v>
@@ -2197,10 +1735,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>141</v>
@@ -2208,10 +1746,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C44">
         <v>142</v>
@@ -2219,10 +1757,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>143</v>
@@ -2230,10 +1768,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>144</v>
@@ -2241,10 +1779,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <v>145</v>
@@ -2252,10 +1790,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>146</v>
@@ -2263,10 +1801,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C49">
         <v>147</v>
@@ -2274,10 +1812,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>148</v>
@@ -2290,10 +1828,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,43 +1899,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/shop.xlsx
+++ b/xlsx/shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORY\Project\IA\git\Association\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORY\Project\IA\Association\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61149094-304A-4C58-9ABE-7EDD27F02990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5744697D-0033-4634-80F2-422D133DC85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Семінари Андрія Косікова" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <sheet name="Семінари Вячеслава Лисенка" sheetId="6" r:id="rId5"/>
     <sheet name="Семінари Івана Митрика" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Олександр Кумонок. Анна Зайчук'!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Семінари Андрія Косікова'!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Семінари Вячеслава Лисенка'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Семінари Дмитра Кущика'!$A$1:$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Семінари Івана Митрика'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Семінари Крутова Григорія'!$A$1:$C$15</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
   <si>
     <t>Название</t>
   </si>
@@ -319,22 +327,13 @@
   </si>
   <si>
     <t>російська</t>
-  </si>
-  <si>
-    <t>Назва</t>
-  </si>
-  <si>
-    <t>Мова</t>
-  </si>
-  <si>
-    <t>Ціна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,15 +347,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -392,19 +382,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -709,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,57 +821,57 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,6 +918,11 @@
       <c r="C24" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C17" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+      <sortCondition descending="1" ref="B1:B17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -937,14 +931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,6 +1107,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C15" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+      <sortCondition descending="1" ref="B1:B15"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1122,7 +1121,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,10 +1209,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>180</v>
@@ -1221,7 +1220,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -1232,7 +1231,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -1243,16 +1242,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>180</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+      <sortCondition descending="1" ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1262,7 +1266,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,189 +1288,189 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>97</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
       <c r="C14">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
       </c>
       <c r="C16">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>97</v>
       </c>
       <c r="C17">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C18">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,6 +1826,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+      <sortCondition descending="1" ref="B1:B50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1831,7 +1840,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,14 +1849,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>100</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1873,6 +1882,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C3">
+      <sortCondition descending="1" ref="B1:B3"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1882,7 +1896,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,6 +1972,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C6" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+      <sortCondition descending="1" ref="B1:B6"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
